--- a/Assets/Scripts/1.Abilities/Resources/Documents/ComplexAbilities/ComplexAbililties_EffectAbility.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/ComplexAbilities/ComplexAbililties_EffectAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\ComplexAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDDA76-E311-40D1-BB27-5B91DB8358EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31220803-DB29-4A56-B8C6-2FCC55438CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{43129CA1-51D5-4C92-9A38-1A83E66F1476}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="28800" windowHeight="15345" firstSheet="3" activeTab="5" xr2:uid="{43129CA1-51D5-4C92-9A38-1A83E66F1476}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaDurationAimedAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>EffectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataUnitType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,13 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B6C90D-190D-468E-AB43-27C4950A1E42}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -470,192 +476,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,13 +673,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55566779-8205-4BA0-BF7D-874EB067FF08}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -686,192 +697,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,13 +894,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C73EA9A-E9F9-4FA9-8405-43CACD580FDA}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -902,192 +918,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,13 +1115,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF823A4-9422-4055-914D-921C5F34C1B4}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1118,192 +1139,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,15 +1336,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6EC0B-DBD4-439E-A258-DBBA120310D1}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1336,192 +1360,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,15 +1557,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C0A86A-8129-457F-91CA-19F416369FF2}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1554,192 +1581,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,15 +1778,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C3A991-8850-48F2-9581-C4B3886CA4A3}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1772,192 +1802,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
